--- a/SK to PCO field names.xlsx
+++ b/SK to PCO field names.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>PCO Field Name</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Individual ID</t>
-  </si>
-  <si>
-    <t>remote_id</t>
   </si>
   <si>
     <t>Member Status</t>
@@ -682,7 +679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -693,7 +690,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F29"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -712,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
@@ -729,10 +726,10 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F29" si="0">CONCATENATE("'",A3,"': '",B3,"',")</f>
@@ -741,10 +738,10 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -753,10 +750,10 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -780,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -858,10 +855,10 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -870,10 +867,10 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -891,10 +888,10 @@
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -917,20 +914,18 @@
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>'Individual ID': 'remote_id',</v>
+        <v>'Individual ID': '',</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -939,10 +934,10 @@
     </row>
     <row r="21" spans="1:6" ht="15">
       <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -951,7 +946,7 @@
     </row>
     <row r="22" spans="1:6" ht="15">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -960,7 +955,7 @@
     </row>
     <row r="23" spans="1:6" ht="15">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -969,10 +964,10 @@
     </row>
     <row r="24" spans="1:6" ht="15">
       <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -981,7 +976,7 @@
     </row>
     <row r="25" spans="1:6" ht="15">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -990,7 +985,7 @@
     </row>
     <row r="26" spans="1:6" ht="15">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -999,10 +994,10 @@
     </row>
     <row r="27" spans="1:6" ht="15">
       <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -1011,10 +1006,10 @@
     </row>
     <row r="28" spans="1:6" ht="15">
       <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
         <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -1023,10 +1018,10 @@
     </row>
     <row r="29" spans="1:6" ht="15">
       <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
